--- a/work/每日业务动作概况.xlsx
+++ b/work/每日业务动作概况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="5.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -125,17 +125,32 @@
   <si>
     <t>6月19日新增当日拉无效</t>
   </si>
+  <si>
+    <t>6月20日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>2017/6/22全公司房源情况</t>
+  </si>
+  <si>
+    <t>2017/6/23全公司房源情况</t>
+  </si>
+  <si>
+    <t>6月21日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>6月22日新增当日拉无效</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -183,14 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,11 +225,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,16 +248,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,9 +279,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -281,32 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +374,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,61 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +519,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +685,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -693,50 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +772,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,109 +793,109 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,10 +1346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J123"/>
+  <dimension ref="B1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123:J123"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4085,7 +4100,7 @@
       </c>
       <c r="E123" s="30"/>
       <c r="G123" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123" s="30"/>
       <c r="I123" s="29">
@@ -4093,8 +4108,290 @@
       </c>
       <c r="J123" s="30"/>
     </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="G125" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="21">
+        <v>19221</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="21">
+        <v>7099</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="21">
+        <v>19106</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="21">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="G127" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="31"/>
+      <c r="E128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="31"/>
+      <c r="J128" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="20">
+        <v>42907</v>
+      </c>
+      <c r="C129" s="27">
+        <v>452</v>
+      </c>
+      <c r="D129" s="32"/>
+      <c r="E129" s="25">
+        <v>370</v>
+      </c>
+      <c r="G129" s="20">
+        <v>42908</v>
+      </c>
+      <c r="H129" s="27">
+        <v>546</v>
+      </c>
+      <c r="I129" s="32"/>
+      <c r="J129" s="25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="10">
+        <v>185</v>
+      </c>
+      <c r="D131" s="10">
+        <v>149</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" ref="E131:E135" si="21">C131-D131</f>
+        <v>36</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="10">
+        <v>162</v>
+      </c>
+      <c r="I131" s="10">
+        <v>152</v>
+      </c>
+      <c r="J131" s="7">
+        <f t="shared" ref="J131:J135" si="22">H131-I131</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="10">
+        <v>36</v>
+      </c>
+      <c r="D132" s="10">
+        <v>30</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="10">
+        <v>88</v>
+      </c>
+      <c r="I132" s="10">
+        <v>27</v>
+      </c>
+      <c r="J132" s="7">
+        <f t="shared" si="22"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="10">
+        <v>31</v>
+      </c>
+      <c r="D133" s="10">
+        <v>55</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="21"/>
+        <v>-24</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="10">
+        <v>53</v>
+      </c>
+      <c r="I133" s="10">
+        <v>19</v>
+      </c>
+      <c r="J133" s="7">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="10">
+        <v>125</v>
+      </c>
+      <c r="D134" s="10">
+        <v>96</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="10">
+        <v>136</v>
+      </c>
+      <c r="I134" s="10">
+        <v>113</v>
+      </c>
+      <c r="J134" s="7">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="10">
+        <v>75</v>
+      </c>
+      <c r="D135" s="10">
+        <v>40</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="10">
+        <v>107</v>
+      </c>
+      <c r="I135" s="10">
+        <v>100</v>
+      </c>
+      <c r="J135" s="7">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="29">
+        <v>27</v>
+      </c>
+      <c r="E136" s="30"/>
+      <c r="G136" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H136" s="30"/>
+      <c r="I136" s="29">
+        <v>25</v>
+      </c>
+      <c r="J136" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="113">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -4196,6 +4493,18 @@
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="I123:J123"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>

--- a/work/每日业务动作概况.xlsx
+++ b/work/每日业务动作概况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -140,19 +140,25 @@
   <si>
     <t>6月22日新增当日拉无效</t>
   </si>
+  <si>
+    <t>2017/6/24全公司房源情况</t>
+  </si>
+  <si>
+    <t>6月23日新增当日拉无效</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +204,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,78 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +303,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,13 +387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,25 +429,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,67 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,13 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,36 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -703,17 +686,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,16 +743,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,10 +773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,137 +785,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1013,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,10 +1371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J136"/>
+  <dimension ref="B1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136:J136"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4390,8 +4415,161 @@
       </c>
       <c r="J136" s="30"/>
     </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="21">
+        <v>19027</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="21">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="31"/>
+      <c r="E141" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="20">
+        <v>42909</v>
+      </c>
+      <c r="C142" s="27">
+        <v>218</v>
+      </c>
+      <c r="D142" s="32"/>
+      <c r="E142" s="25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="34">
+        <v>55</v>
+      </c>
+      <c r="D144" s="34">
+        <v>38</v>
+      </c>
+      <c r="E144" s="7">
+        <f>C144-D144</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="34">
+        <v>13</v>
+      </c>
+      <c r="D145" s="34">
+        <v>6</v>
+      </c>
+      <c r="E145" s="7">
+        <f>C145-D145</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="34">
+        <v>15</v>
+      </c>
+      <c r="D146" s="34">
+        <v>19</v>
+      </c>
+      <c r="E146" s="7">
+        <f>C146-D146</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="34">
+        <v>77</v>
+      </c>
+      <c r="D147" s="34">
+        <v>55</v>
+      </c>
+      <c r="E147" s="7">
+        <f>C147-D147</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="34">
+        <v>58</v>
+      </c>
+      <c r="D148" s="34">
+        <v>28</v>
+      </c>
+      <c r="E148" s="7">
+        <f>C148-D148</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="36"/>
+      <c r="D149" s="35">
+        <v>7</v>
+      </c>
+      <c r="E149" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="119">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -4505,6 +4683,12 @@
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="G136:H136"/>
     <mergeCell ref="I136:J136"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>

--- a/work/每日业务动作概况.xlsx
+++ b/work/每日业务动作概况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -144,7 +144,19 @@
     <t>2017/6/24全公司房源情况</t>
   </si>
   <si>
+    <t>2017/6/25全公司房源情况</t>
+  </si>
+  <si>
     <t>6月23日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>6月24日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>2017/6/26全公司房源情况</t>
+  </si>
+  <si>
+    <t>6月25日新增当日拉无效</t>
   </si>
 </sst>
 </file>
@@ -153,9 +165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
@@ -387,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +477,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,12 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,31 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,145 +785,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,10 +1383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J149"/>
+  <dimension ref="B1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4415,15 +4427,21 @@
       </c>
       <c r="J136" s="30"/>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:10">
       <c r="B138" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
-    </row>
-    <row r="139" spans="2:5">
+      <c r="G138" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10">
       <c r="B139" s="17" t="s">
         <v>27</v>
       </c>
@@ -4436,16 +4454,34 @@
       <c r="E139" s="21">
         <v>7059</v>
       </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="33" t="s">
+      <c r="G139" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="21">
+        <v>18911</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J139" s="21">
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-    </row>
-    <row r="141" spans="2:5">
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="G140" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+    </row>
+    <row r="141" spans="2:10">
       <c r="B141" s="23" t="s">
         <v>1</v>
       </c>
@@ -4456,8 +4492,18 @@
       <c r="E141" s="23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="2:5">
+      <c r="G141" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" s="31"/>
+      <c r="J141" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
       <c r="B142" s="20">
         <v>42909</v>
       </c>
@@ -4468,108 +4514,356 @@
       <c r="E142" s="25">
         <v>146</v>
       </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="34" t="s">
+      <c r="G142" s="20">
+        <v>42910</v>
+      </c>
+      <c r="H142" s="27">
+        <v>722</v>
+      </c>
+      <c r="I142" s="32"/>
+      <c r="J142" s="25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="34" t="s">
+      <c r="C143" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="34" t="s">
+      <c r="E143" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="34" t="s">
+      <c r="G143" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="34">
+      <c r="C144" s="10">
         <v>55</v>
       </c>
-      <c r="D144" s="34">
+      <c r="D144" s="10">
         <v>38</v>
       </c>
       <c r="E144" s="7">
-        <f>C144-D144</f>
+        <f t="shared" ref="E144:E148" si="23">C144-D144</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="34" t="s">
+      <c r="G144" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="34">
+        <v>214</v>
+      </c>
+      <c r="I144" s="34">
+        <v>216</v>
+      </c>
+      <c r="J144" s="7">
+        <f t="shared" ref="J144:J148" si="24">H144-I144</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="34">
+      <c r="C145" s="10">
         <v>13</v>
       </c>
-      <c r="D145" s="34">
+      <c r="D145" s="10">
         <v>6</v>
       </c>
       <c r="E145" s="7">
-        <f>C145-D145</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="34" t="s">
+      <c r="G145" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="34">
+        <v>97</v>
+      </c>
+      <c r="I145" s="34">
+        <v>68</v>
+      </c>
+      <c r="J145" s="7">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="34">
+      <c r="C146" s="10">
         <v>15</v>
       </c>
-      <c r="D146" s="34">
+      <c r="D146" s="10">
         <v>19</v>
       </c>
       <c r="E146" s="7">
-        <f>C146-D146</f>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="34" t="s">
+      <c r="G146" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="34">
+        <v>47</v>
+      </c>
+      <c r="I146" s="34">
+        <v>37</v>
+      </c>
+      <c r="J146" s="7">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="34">
+      <c r="C147" s="10">
         <v>77</v>
       </c>
-      <c r="D147" s="34">
+      <c r="D147" s="10">
         <v>55</v>
       </c>
       <c r="E147" s="7">
-        <f>C147-D147</f>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="34" t="s">
+      <c r="G147" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="34">
+        <v>171</v>
+      </c>
+      <c r="I147" s="34">
+        <v>153</v>
+      </c>
+      <c r="J147" s="7">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C148" s="34">
+      <c r="C148" s="10">
         <v>58</v>
       </c>
-      <c r="D148" s="34">
+      <c r="D148" s="10">
         <v>28</v>
       </c>
       <c r="E148" s="7">
-        <f>C148-D148</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="35">
+      <c r="G148" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="34">
+        <v>193</v>
+      </c>
+      <c r="I148" s="34">
+        <v>150</v>
+      </c>
+      <c r="J148" s="7">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="30"/>
+      <c r="D149" s="29">
         <v>7</v>
       </c>
-      <c r="E149" s="36"/>
+      <c r="E149" s="30"/>
+      <c r="G149" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="36"/>
+      <c r="I149" s="35">
+        <v>41</v>
+      </c>
+      <c r="J149" s="36"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="21">
+        <v>18869</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="21">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="31"/>
+      <c r="E154" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="20">
+        <v>42911</v>
+      </c>
+      <c r="C155" s="27">
+        <v>698</v>
+      </c>
+      <c r="D155" s="32"/>
+      <c r="E155" s="25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="34">
+        <v>233</v>
+      </c>
+      <c r="D157" s="34">
+        <v>193</v>
+      </c>
+      <c r="E157" s="7">
+        <f>C157-D157</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="34">
+        <v>109</v>
+      </c>
+      <c r="D158" s="34">
+        <v>54</v>
+      </c>
+      <c r="E158" s="7">
+        <f>C158-D158</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="34">
+        <v>53</v>
+      </c>
+      <c r="D159" s="34">
+        <v>30</v>
+      </c>
+      <c r="E159" s="7">
+        <f>C159-D159</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="34">
+        <v>146</v>
+      </c>
+      <c r="D160" s="34">
+        <v>124</v>
+      </c>
+      <c r="E160" s="7">
+        <f>C160-D160</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="34">
+        <v>157</v>
+      </c>
+      <c r="D161" s="34">
+        <v>96</v>
+      </c>
+      <c r="E161" s="7">
+        <f>C161-D161</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" s="36"/>
+      <c r="D162" s="35">
+        <v>32</v>
+      </c>
+      <c r="E162" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="131">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -4684,11 +4978,23 @@
     <mergeCell ref="G136:H136"/>
     <mergeCell ref="I136:J136"/>
     <mergeCell ref="B138:E138"/>
+    <mergeCell ref="G138:J138"/>
     <mergeCell ref="B140:E140"/>
+    <mergeCell ref="G140:J140"/>
     <mergeCell ref="C141:D141"/>
+    <mergeCell ref="H141:I141"/>
     <mergeCell ref="C142:D142"/>
+    <mergeCell ref="H142:I142"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>

--- a/work/每日业务动作概况.xlsx
+++ b/work/每日业务动作概况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="5.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>近期每日新增、拉无效房源数据汇总</t>
   </si>
@@ -156,7 +156,13 @@
     <t>2017/6/26全公司房源情况</t>
   </si>
   <si>
+    <t>2017/6/27全公司房源情况</t>
+  </si>
+  <si>
     <t>6月25日新增当日拉无效</t>
+  </si>
+  <si>
+    <t>6月26日新增当日拉无效</t>
   </si>
 </sst>
 </file>
@@ -344,7 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -352,6 +357,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -399,12 +405,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,24 +417,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,12 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,19 +477,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,19 +543,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,145 +791,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="B1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="N137" sqref="N137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4474,12 +4480,12 @@
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
       <c r="E140" s="22"/>
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="23" t="s">
@@ -4538,16 +4544,16 @@
       <c r="E143" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G143" s="34" t="s">
+      <c r="G143" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H143" s="34" t="s">
+      <c r="H143" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I143" s="34" t="s">
+      <c r="I143" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="34" t="s">
+      <c r="J143" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4565,13 +4571,13 @@
         <f t="shared" ref="E144:E148" si="23">C144-D144</f>
         <v>17</v>
       </c>
-      <c r="G144" s="34" t="s">
+      <c r="G144" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="34">
+      <c r="H144" s="10">
         <v>214</v>
       </c>
-      <c r="I144" s="34">
+      <c r="I144" s="10">
         <v>216</v>
       </c>
       <c r="J144" s="7">
@@ -4593,13 +4599,13 @@
         <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="G145" s="34" t="s">
+      <c r="G145" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H145" s="34">
+      <c r="H145" s="10">
         <v>97</v>
       </c>
-      <c r="I145" s="34">
+      <c r="I145" s="10">
         <v>68</v>
       </c>
       <c r="J145" s="7">
@@ -4621,13 +4627,13 @@
         <f t="shared" si="23"/>
         <v>-4</v>
       </c>
-      <c r="G146" s="34" t="s">
+      <c r="G146" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="34">
+      <c r="H146" s="10">
         <v>47</v>
       </c>
-      <c r="I146" s="34">
+      <c r="I146" s="10">
         <v>37</v>
       </c>
       <c r="J146" s="7">
@@ -4649,13 +4655,13 @@
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="G147" s="34" t="s">
+      <c r="G147" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H147" s="34">
+      <c r="H147" s="10">
         <v>171</v>
       </c>
-      <c r="I147" s="34">
+      <c r="I147" s="10">
         <v>153</v>
       </c>
       <c r="J147" s="7">
@@ -4677,13 +4683,13 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-      <c r="G148" s="34" t="s">
+      <c r="G148" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="34">
+      <c r="H148" s="10">
         <v>193</v>
       </c>
-      <c r="I148" s="34">
+      <c r="I148" s="10">
         <v>150</v>
       </c>
       <c r="J148" s="7">
@@ -4700,24 +4706,30 @@
         <v>7</v>
       </c>
       <c r="E149" s="30"/>
-      <c r="G149" s="35" t="s">
+      <c r="G149" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H149" s="36"/>
-      <c r="I149" s="35">
+      <c r="H149" s="30"/>
+      <c r="I149" s="29">
         <v>41</v>
       </c>
-      <c r="J149" s="36"/>
-    </row>
-    <row r="151" spans="2:5">
+      <c r="J149" s="30"/>
+    </row>
+    <row r="151" spans="2:10">
       <c r="B151" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
-    </row>
-    <row r="152" spans="2:5">
+      <c r="G151" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10">
       <c r="B152" s="17" t="s">
         <v>27</v>
       </c>
@@ -4730,16 +4742,34 @@
       <c r="E152" s="21">
         <v>7163</v>
       </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="33" t="s">
+      <c r="G152" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="21">
+        <v>18773</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J152" s="21">
+        <v>7103</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-    </row>
-    <row r="154" spans="2:5">
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="G153" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+    </row>
+    <row r="154" spans="2:10">
       <c r="B154" s="23" t="s">
         <v>1</v>
       </c>
@@ -4750,8 +4780,18 @@
       <c r="E154" s="23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="2:5">
+      <c r="G154" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I154" s="31"/>
+      <c r="J154" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10">
       <c r="B155" s="20">
         <v>42911</v>
       </c>
@@ -4762,108 +4802,201 @@
       <c r="E155" s="25">
         <v>497</v>
       </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="34" t="s">
+      <c r="G155" s="20">
+        <v>42912</v>
+      </c>
+      <c r="H155" s="27">
+        <v>449</v>
+      </c>
+      <c r="I155" s="32"/>
+      <c r="J155" s="25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C156" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E156" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="34" t="s">
+      <c r="G156" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J156" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="34">
+      <c r="C157" s="10">
         <v>233</v>
       </c>
-      <c r="D157" s="34">
+      <c r="D157" s="10">
         <v>193</v>
       </c>
       <c r="E157" s="7">
-        <f>C157-D157</f>
+        <f t="shared" ref="E157:E161" si="25">C157-D157</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="34" t="s">
+      <c r="G157" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="34">
+        <v>157</v>
+      </c>
+      <c r="I157" s="34">
+        <v>133</v>
+      </c>
+      <c r="J157" s="7">
+        <f>H157-I157</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="34">
+      <c r="C158" s="10">
         <v>109</v>
       </c>
-      <c r="D158" s="34">
+      <c r="D158" s="10">
         <v>54</v>
       </c>
       <c r="E158" s="7">
-        <f>C158-D158</f>
+        <f t="shared" si="25"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="34" t="s">
+      <c r="G158" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="34">
+        <v>55</v>
+      </c>
+      <c r="I158" s="34">
+        <v>26</v>
+      </c>
+      <c r="J158" s="7">
+        <f>H158-I158</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C159" s="34">
+      <c r="C159" s="10">
         <v>53</v>
       </c>
-      <c r="D159" s="34">
+      <c r="D159" s="10">
         <v>30</v>
       </c>
       <c r="E159" s="7">
-        <f>C159-D159</f>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="34" t="s">
+      <c r="G159" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" s="34">
+        <v>43</v>
+      </c>
+      <c r="I159" s="34">
+        <v>25</v>
+      </c>
+      <c r="J159" s="7">
+        <f>H159-I159</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="34">
+      <c r="C160" s="10">
         <v>146</v>
       </c>
-      <c r="D160" s="34">
+      <c r="D160" s="10">
         <v>124</v>
       </c>
       <c r="E160" s="7">
-        <f>C160-D160</f>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="34" t="s">
+      <c r="G160" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="34">
+        <v>119</v>
+      </c>
+      <c r="I160" s="34">
+        <v>81</v>
+      </c>
+      <c r="J160" s="7">
+        <f>H160-I160</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="34">
+      <c r="C161" s="10">
         <v>157</v>
       </c>
-      <c r="D161" s="34">
+      <c r="D161" s="10">
         <v>96</v>
       </c>
       <c r="E161" s="7">
-        <f>C161-D161</f>
+        <f t="shared" si="25"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="35">
+      <c r="G161" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="34">
+        <v>75</v>
+      </c>
+      <c r="I161" s="34">
+        <v>59</v>
+      </c>
+      <c r="J161" s="7">
+        <f>H161-I161</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="30"/>
+      <c r="D162" s="29">
         <v>32</v>
       </c>
-      <c r="E162" s="36"/>
+      <c r="E162" s="30"/>
+      <c r="G162" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H162" s="36"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="137">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -4990,11 +5123,17 @@
     <mergeCell ref="G149:H149"/>
     <mergeCell ref="I149:J149"/>
     <mergeCell ref="B151:E151"/>
+    <mergeCell ref="G151:J151"/>
     <mergeCell ref="B153:E153"/>
+    <mergeCell ref="G153:J153"/>
     <mergeCell ref="C154:D154"/>
+    <mergeCell ref="H154:I154"/>
     <mergeCell ref="C155:D155"/>
+    <mergeCell ref="H155:I155"/>
     <mergeCell ref="B162:C162"/>
     <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>
